--- a/biology/Botanique/Yakusugi/Yakusugi.xlsx
+++ b/biology/Botanique/Yakusugi/Yakusugi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le yakusugi (屋久杉?) est une variété de cèdre du Japon de l'île septentrionale de Yaku (屋久島, Yaku-shima?), près de Kyushu. Tandis que le sugi ordinaire (杉?, cèdre japonais) a une espérance de vie d'environ cinq cents ans, le yakusugi vit en moyenne deux mille ans. Certains spécimens dépassent même largement cette espérance tel le Jōmon sugi (縄文杉?) dont l'âge est estimé entre 2 300 et 7 200 ans. Seuls les spécimens ayant plus de mille ans sont reconnus comme étant des yakusugi.
